--- a/Data/062018/nhanvien.xlsx
+++ b/Data/062018/nhanvien.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{276C2825-7427-4CB7-884E-72FFE3A5376A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4603405-09A0-4655-933F-F861D9DA616B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Hai</t>
   </si>
@@ -46,19 +46,19 @@
     <t>Bat cap</t>
   </si>
   <si>
+    <t>Chi Thuy</t>
+  </si>
+  <si>
+    <t>Huong</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>Chi Thuy</t>
-  </si>
-  <si>
-    <t>Huong</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Trang</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +460,12 @@
       <c r="I2">
         <v>0.01</v>
       </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -489,6 +495,12 @@
       <c r="I3">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -518,6 +530,12 @@
       <c r="I4">
         <v>1.6E-2</v>
       </c>
+      <c r="J4">
+        <v>0.7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -551,7 +569,7 @@
         <v>0.7</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -582,10 +600,16 @@
       <c r="I6">
         <v>1.6E-2</v>
       </c>
+      <c r="J6">
+        <v>0.7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3000</v>
@@ -611,10 +635,16 @@
       <c r="I7">
         <v>1.6E-2</v>
       </c>
+      <c r="J7">
+        <v>0.7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>5200</v>
@@ -622,7 +652,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>5000</v>
@@ -630,7 +660,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5000</v>
